--- a/data/trans_orig/P41C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E526FCC-367D-4C0E-AA62-BF65A9F0A0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72E035FB-4E72-4F79-9A46-B6DC58AAACC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3398A9D-FE08-4A29-8F10-8E7AF9620F1F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62ED60DC-12C0-4ACF-8475-BB48E393D712}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="243">
   <si>
     <t>Población según si han tenido o tienen dificultades para tener un embarazo en 2023 (Tasa respuesta: 18,3%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>98,32%</t>
   </si>
   <si>
-    <t>94,82%</t>
+    <t>94,76%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>97,13%</t>
+    <t>96,97%</t>
   </si>
   <si>
     <t>Sí, ya lo intentamos anteriormente, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en promedio</t>
@@ -116,613 +116,619 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>5,18%</t>
+    <t>5,24%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>Sí, en la actualidad lo llevamos intentando, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en</t>
+  </si>
+  <si>
+    <t>Sí, en la actualidad lo llevamos intentando con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>Sí, en la actualidad lo llevamos intentando, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en</t>
-  </si>
-  <si>
-    <t>Sí, en la actualidad lo llevamos intentando con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -731,22 +737,19 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>1,45%</t>
@@ -758,7 +761,7 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1173,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A163BD0-D74D-4295-A338-A85AEA28BF04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D098B7DE-8F4A-4621-8F8A-6A31302ECAD0}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1740,10 +1743,10 @@
         <v>45</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,13 +1761,13 @@
         <v>1371</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1773,13 +1776,13 @@
         <v>1247</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1788,13 +1791,13 @@
         <v>2618</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,7 +1904,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1913,13 +1916,13 @@
         <v>69234</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -1928,13 +1931,13 @@
         <v>73448</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -1943,13 +1946,13 @@
         <v>142682</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,37 +1973,37 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,13 +2018,13 @@
         <v>5237</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -2030,13 +2033,13 @@
         <v>4196</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -2045,13 +2048,13 @@
         <v>9432</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,37 +2075,37 @@
         <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,7 +2126,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2132,13 +2135,13 @@
         <v>2212</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2147,13 +2150,13 @@
         <v>3404</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,7 +2212,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2221,10 +2224,10 @@
         <v>64537</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -2236,13 +2239,13 @@
         <v>71315</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -2251,13 +2254,13 @@
         <v>135853</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,7 +2281,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2287,13 +2290,13 @@
         <v>861</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2302,13 +2305,13 @@
         <v>861</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2332,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2338,13 +2341,13 @@
         <v>1928</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2353,13 +2356,13 @@
         <v>1928</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,7 +2383,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2395,7 +2398,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2410,7 +2413,7 @@
         <v>20</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2428,13 @@
         <v>4584</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2440,13 +2443,13 @@
         <v>1755</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2455,13 +2458,13 @@
         <v>6339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,7 +2520,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2529,10 +2532,10 @@
         <v>57190</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>11</v>
@@ -2544,10 +2547,10 @@
         <v>75729</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -2559,13 +2562,13 @@
         <v>132919</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,7 +2589,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2595,13 +2598,13 @@
         <v>379</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2610,13 +2613,13 @@
         <v>379</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,7 +2640,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2652,7 +2655,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2667,7 +2670,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2691,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2697,13 +2700,13 @@
         <v>649</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2712,13 +2715,13 @@
         <v>649</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2736,13 @@
         <v>762</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2754,7 +2757,7 @@
         <v>20</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2763,13 +2766,13 @@
         <v>762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,7 +2828,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2840,7 +2843,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>13</v>
@@ -2852,13 +2855,13 @@
         <v>66843</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M34" s="7">
         <v>172</v>
@@ -2867,13 +2870,13 @@
         <v>140741</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2897,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -2903,13 +2906,13 @@
         <v>776</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -2918,13 +2921,13 @@
         <v>776</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,7 +2948,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2960,7 +2963,7 @@
         <v>20</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2975,7 +2978,7 @@
         <v>20</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,7 +2999,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3011,7 +3014,7 @@
         <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3026,7 +3029,7 @@
         <v>20</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,7 +3050,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3056,13 +3059,13 @@
         <v>1508</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -3071,13 +3074,13 @@
         <v>1508</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3136,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3145,13 +3148,13 @@
         <v>98034</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H40" s="7">
         <v>197</v>
@@ -3160,13 +3163,13 @@
         <v>154411</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M40" s="7">
         <v>278</v>
@@ -3175,13 +3178,13 @@
         <v>252445</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3199,13 @@
         <v>1284</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3211,13 +3214,13 @@
         <v>727</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -3226,13 +3229,13 @@
         <v>2012</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,10 +3253,10 @@
         <v>21</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -3262,13 +3265,13 @@
         <v>7431</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M42" s="7">
         <v>13</v>
@@ -3277,13 +3280,13 @@
         <v>10824</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,28 +3301,28 @@
         <v>1256</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -3328,13 +3331,13 @@
         <v>1256</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3352,13 @@
         <v>2312</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -3364,13 +3367,13 @@
         <v>1951</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
@@ -3379,13 +3382,13 @@
         <v>4262</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,7 +3444,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3453,13 +3456,13 @@
         <v>211538</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H46" s="7">
         <v>180</v>
@@ -3468,13 +3471,13 @@
         <v>157251</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M46" s="7">
         <v>309</v>
@@ -3483,13 +3486,13 @@
         <v>368789</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3513,7 @@
         <v>20</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -3519,13 +3522,13 @@
         <v>806</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -3534,13 +3537,13 @@
         <v>806</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3558,13 @@
         <v>2502</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -3570,13 +3573,13 @@
         <v>929</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M48" s="7">
         <v>3</v>
@@ -3585,10 +3588,10 @@
         <v>3431</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>199</v>
@@ -3612,7 +3615,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3657,7 +3660,7 @@
         <v>2446</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>19</v>
@@ -3687,10 +3690,10 @@
         <v>5963</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>206</v>
@@ -3797,7 +3800,7 @@
         <v>214</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3815,13 @@
         <v>1284</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H53" s="7">
         <v>5</v>
@@ -3833,7 +3836,7 @@
         <v>218</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="M53" s="7">
         <v>7</v>
@@ -3848,7 +3851,7 @@
         <v>220</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3866,13 @@
         <v>12571</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H54" s="7">
         <v>23</v>
@@ -3878,13 +3881,13 @@
         <v>15670</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M54" s="7">
         <v>34</v>
@@ -3893,13 +3896,13 @@
         <v>28241</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3917,13 @@
         <v>2628</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
@@ -3929,13 +3932,13 @@
         <v>1896</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="M55" s="7">
         <v>4</v>
@@ -3944,13 +3947,13 @@
         <v>4524</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,10 +3971,10 @@
         <v>41</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H56" s="7">
         <v>12</v>
@@ -3980,13 +3983,13 @@
         <v>10942</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="M56" s="7">
         <v>20</v>
@@ -3995,13 +3998,13 @@
         <v>22239</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,7 +4060,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72E035FB-4E72-4F79-9A46-B6DC58AAACC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CC271A1-2503-4BF9-A5EF-857E6A5FFAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62ED60DC-12C0-4ACF-8475-BB48E393D712}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B12A912C-7303-4823-B893-D43D65E99D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D098B7DE-8F4A-4621-8F8A-6A31302ECAD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143CD313-F622-4705-ACBE-4807919B687B}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CC271A1-2503-4BF9-A5EF-857E6A5FFAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7DBF55-EA3C-4E73-9059-5DF9F6AA20AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B12A912C-7303-4823-B893-D43D65E99D4A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E7A9565-7D4B-4470-ACED-376045CDC94C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="242">
   <si>
     <t>Población según si han tenido o tienen dificultades para tener un embarazo en 2023 (Tasa respuesta: 18,3%)</t>
   </si>
@@ -83,673 +83,670 @@
     <t>98,32%</t>
   </si>
   <si>
-    <t>94,76%</t>
+    <t>94,82%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>Sí, ya lo intentamos anteriormente, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en promedio</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>Sí, ya lo intentamos anteriormente con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio durante</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>Sí, en la actualidad lo llevamos intentando, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en</t>
+  </si>
+  <si>
+    <t>Sí, en la actualidad lo llevamos intentando con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>Sí, ya lo intentamos anteriormente, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en promedio</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>Sí, ya lo intentamos anteriormente con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio durante</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>Sí, en la actualidad lo llevamos intentando, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en</t>
-  </si>
-  <si>
-    <t>Sí, en la actualidad lo llevamos intentando con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
     <t>0,37%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
+    <t>0,9%</t>
+  </si>
+  <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>1,45%</t>
@@ -761,7 +758,7 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>2,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1176,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143CD313-F622-4705-ACBE-4807919B687B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1240A5B7-6956-4958-8D55-57AFA9C8D58A}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1743,10 +1740,10 @@
         <v>45</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1758,13 @@
         <v>1371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1776,13 +1773,13 @@
         <v>1247</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1791,13 +1788,13 @@
         <v>2618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,7 +1901,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1916,13 +1913,13 @@
         <v>69234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -1931,13 +1928,13 @@
         <v>73448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -1946,13 +1943,13 @@
         <v>142682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,7 +1970,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1988,7 +1985,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2003,7 +2000,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,13 +2015,13 @@
         <v>5237</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -2033,13 +2030,13 @@
         <v>4196</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -2048,13 +2045,13 @@
         <v>9432</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,7 +2072,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2090,7 +2087,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2105,7 +2102,7 @@
         <v>20</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,7 +2123,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2135,13 +2132,13 @@
         <v>2212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2150,13 +2147,13 @@
         <v>3404</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,7 +2209,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2224,10 +2221,10 @@
         <v>64537</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -2239,13 +2236,13 @@
         <v>71315</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -2254,13 +2251,13 @@
         <v>135853</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,7 +2278,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2290,13 +2287,13 @@
         <v>861</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2305,13 +2302,13 @@
         <v>861</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2329,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2341,13 +2338,13 @@
         <v>1928</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2356,13 +2353,13 @@
         <v>1928</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,7 +2380,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2398,7 +2395,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2413,7 +2410,7 @@
         <v>20</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2425,13 @@
         <v>4584</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2443,13 +2440,13 @@
         <v>1755</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2458,13 +2455,13 @@
         <v>6339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,7 +2517,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2532,10 +2529,10 @@
         <v>57190</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>11</v>
@@ -2547,10 +2544,10 @@
         <v>75729</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -2562,13 +2559,13 @@
         <v>132919</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2586,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2598,13 +2595,13 @@
         <v>379</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2613,13 +2610,13 @@
         <v>379</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,7 +2637,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2655,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2670,7 +2667,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,7 +2688,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2700,13 +2697,13 @@
         <v>649</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2715,13 +2712,13 @@
         <v>649</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2733,13 @@
         <v>762</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2757,7 +2754,7 @@
         <v>20</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2766,13 +2763,13 @@
         <v>762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,7 +2825,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2843,7 +2840,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>13</v>
@@ -2855,13 +2852,13 @@
         <v>66843</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M34" s="7">
         <v>172</v>
@@ -2870,13 +2867,13 @@
         <v>140741</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,7 +2894,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -2906,13 +2903,13 @@
         <v>776</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -2921,13 +2918,13 @@
         <v>776</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,7 +2945,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2963,7 +2960,7 @@
         <v>20</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2978,7 +2975,7 @@
         <v>20</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,7 +2996,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3014,7 +3011,7 @@
         <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3029,7 +3026,7 @@
         <v>20</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,7 +3047,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3059,13 +3056,13 @@
         <v>1508</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -3074,13 +3071,13 @@
         <v>1508</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3133,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3148,13 +3145,13 @@
         <v>98034</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H40" s="7">
         <v>197</v>
@@ -3163,13 +3160,13 @@
         <v>154411</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M40" s="7">
         <v>278</v>
@@ -3178,13 +3175,13 @@
         <v>252445</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3196,13 @@
         <v>1284</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3214,13 +3211,13 @@
         <v>727</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -3229,13 +3226,13 @@
         <v>2012</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,10 +3250,10 @@
         <v>21</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -3265,13 +3262,13 @@
         <v>7431</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M42" s="7">
         <v>13</v>
@@ -3280,13 +3277,13 @@
         <v>10824</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3298,13 @@
         <v>1256</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3322,7 +3319,7 @@
         <v>20</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -3331,13 +3328,13 @@
         <v>1256</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3349,13 @@
         <v>2312</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -3367,13 +3364,13 @@
         <v>1951</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
@@ -3382,13 +3379,13 @@
         <v>4262</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,7 +3441,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3456,13 +3453,13 @@
         <v>211538</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H46" s="7">
         <v>180</v>
@@ -3471,13 +3468,13 @@
         <v>157251</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M46" s="7">
         <v>309</v>
@@ -3486,13 +3483,13 @@
         <v>368789</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,7 +3510,7 @@
         <v>20</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -3522,13 +3519,13 @@
         <v>806</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -3537,13 +3534,13 @@
         <v>806</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3555,13 @@
         <v>2502</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -3573,13 +3570,13 @@
         <v>929</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M48" s="7">
         <v>3</v>
@@ -3588,10 +3585,10 @@
         <v>3431</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>199</v>
@@ -3615,7 +3612,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3660,7 +3657,7 @@
         <v>2446</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>19</v>
@@ -3690,10 +3687,10 @@
         <v>5963</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>206</v>
@@ -3800,7 +3797,7 @@
         <v>214</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3812,13 @@
         <v>1284</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="H53" s="7">
         <v>5</v>
@@ -3836,7 +3833,7 @@
         <v>218</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="M53" s="7">
         <v>7</v>
@@ -3851,7 +3848,7 @@
         <v>220</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3863,13 @@
         <v>12571</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H54" s="7">
         <v>23</v>
@@ -3881,13 +3878,13 @@
         <v>15670</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M54" s="7">
         <v>34</v>
@@ -3896,13 +3893,13 @@
         <v>28241</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P54" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="Q54" s="7" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3914,13 @@
         <v>2628</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
@@ -3932,13 +3929,13 @@
         <v>1896</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="M55" s="7">
         <v>4</v>
@@ -3947,13 +3944,13 @@
         <v>4524</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,10 +3968,10 @@
         <v>41</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H56" s="7">
         <v>12</v>
@@ -3983,13 +3980,13 @@
         <v>10942</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="M56" s="7">
         <v>20</v>
@@ -3998,13 +3995,13 @@
         <v>22239</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,7 +4057,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7DBF55-EA3C-4E73-9059-5DF9F6AA20AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B8D5174-6253-474F-A971-EA5C08131932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E7A9565-7D4B-4470-ACED-376045CDC94C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DAD9D9FA-2ADB-468E-A11D-9B7DC62B1200}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="239">
   <si>
     <t>Población según si han tenido o tienen dificultades para tener un embarazo en 2023 (Tasa respuesta: 18,3%)</t>
   </si>
@@ -80,685 +80,676 @@
     <t>100%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>Sí, ya lo intentamos anteriormente, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en promedio</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>Sí, ya lo intentamos anteriormente con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio durante</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>Sí, en la actualidad lo llevamos intentando, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en</t>
+  </si>
+  <si>
+    <t>Sí, en la actualidad lo llevamos intentando con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>97,13%</t>
   </si>
   <si>
-    <t>Sí, ya lo intentamos anteriormente, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en promedio</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>Sí, ya lo intentamos anteriormente con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio durante</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>Sí, en la actualidad lo llevamos intentando, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en</t>
-  </si>
-  <si>
-    <t>Sí, en la actualidad lo llevamos intentando con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1173,7 +1164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1240A5B7-6956-4958-8D55-57AFA9C8D58A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0DF1BD-1556-46DC-B188-1C2140F18E28}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1294,7 +1285,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="7">
-        <v>48081</v>
+        <v>59583</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1309,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="I4" s="7">
-        <v>59877</v>
+        <v>64896</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1324,7 +1315,7 @@
         <v>177</v>
       </c>
       <c r="N4" s="7">
-        <v>107958</v>
+        <v>124478</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1411,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1026</v>
+        <v>1075</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>25</v>
@@ -1426,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>1026</v>
+        <v>1075</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>27</v>
@@ -1549,7 +1540,7 @@
         <v>59</v>
       </c>
       <c r="D9" s="7">
-        <v>48081</v>
+        <v>59583</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1564,7 +1555,7 @@
         <v>120</v>
       </c>
       <c r="I9" s="7">
-        <v>60903</v>
+        <v>65971</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1579,7 +1570,7 @@
         <v>179</v>
       </c>
       <c r="N9" s="7">
-        <v>108984</v>
+        <v>125553</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1602,7 +1593,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>56798</v>
+        <v>59112</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
@@ -1617,7 +1608,7 @@
         <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>64179</v>
+        <v>61056</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>34</v>
@@ -1632,7 +1623,7 @@
         <v>115</v>
       </c>
       <c r="N10" s="7">
-        <v>120977</v>
+        <v>120168</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>36</v>
@@ -1704,46 +1695,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1440</v>
+        <v>1452</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>1600</v>
+        <v>1615</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>45</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,46 +1746,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1371</v>
+        <v>1453</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1247</v>
+        <v>1141</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>2618</v>
+        <v>2595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,7 +1848,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="7">
-        <v>59610</v>
+        <v>62017</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1872,7 +1863,7 @@
         <v>78</v>
       </c>
       <c r="I15" s="7">
-        <v>65585</v>
+        <v>62360</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1887,7 +1878,7 @@
         <v>119</v>
       </c>
       <c r="N15" s="7">
-        <v>125195</v>
+        <v>124377</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1901,7 +1892,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1910,46 +1901,46 @@
         <v>64</v>
       </c>
       <c r="D16" s="7">
-        <v>69234</v>
+        <v>68754</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
       </c>
       <c r="I16" s="7">
-        <v>73448</v>
+        <v>69293</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
       </c>
       <c r="N16" s="7">
-        <v>142682</v>
+        <v>138047</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,37 +1961,37 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,46 +2003,46 @@
         <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>5237</v>
+        <v>5143</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>4196</v>
+        <v>3956</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>9432</v>
+        <v>9099</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,37 +2063,37 @@
         <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,46 +2105,46 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>1192</v>
+        <v>1207</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>2212</v>
+        <v>2107</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>3404</v>
+        <v>3314</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,7 +2156,7 @@
         <v>70</v>
       </c>
       <c r="D21" s="7">
-        <v>75663</v>
+        <v>75104</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -2180,7 +2171,7 @@
         <v>102</v>
       </c>
       <c r="I21" s="7">
-        <v>79855</v>
+        <v>75356</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -2195,7 +2186,7 @@
         <v>172</v>
       </c>
       <c r="N21" s="7">
-        <v>155518</v>
+        <v>150460</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -2209,7 +2200,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2218,13 +2209,13 @@
         <v>37</v>
       </c>
       <c r="D22" s="7">
-        <v>64537</v>
+        <v>62627</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -2233,31 +2224,31 @@
         <v>79</v>
       </c>
       <c r="I22" s="7">
-        <v>71315</v>
+        <v>65382</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
       </c>
       <c r="N22" s="7">
-        <v>135853</v>
+        <v>128009</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,37 +2269,37 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>861</v>
+        <v>800</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>861</v>
+        <v>800</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,37 +2320,37 @@
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>1928</v>
+        <v>1795</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>1928</v>
+        <v>1795</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,7 +2371,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2395,22 +2386,22 @@
         <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,46 +2413,46 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>4584</v>
+        <v>4361</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>1755</v>
+        <v>1640</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>6339</v>
+        <v>6002</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,7 +2464,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="7">
-        <v>69121</v>
+        <v>66988</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -2488,7 +2479,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="7">
-        <v>75860</v>
+        <v>69617</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -2503,7 +2494,7 @@
         <v>123</v>
       </c>
       <c r="N27" s="7">
-        <v>144981</v>
+        <v>136605</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -2517,7 +2508,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2526,13 +2517,13 @@
         <v>74</v>
       </c>
       <c r="D28" s="7">
-        <v>57190</v>
+        <v>52161</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>11</v>
@@ -2541,13 +2532,13 @@
         <v>138</v>
       </c>
       <c r="I28" s="7">
-        <v>75729</v>
+        <v>67668</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -2556,16 +2547,16 @@
         <v>212</v>
       </c>
       <c r="N28" s="7">
-        <v>132919</v>
+        <v>119830</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,37 +2577,37 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,7 +2628,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2652,7 +2643,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2667,7 +2658,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,37 +2679,37 @@
         <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,16 +2721,16 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>762</v>
+        <v>694</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2754,22 +2745,22 @@
         <v>20</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>762</v>
+        <v>694</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2772,7 @@
         <v>75</v>
       </c>
       <c r="D33" s="7">
-        <v>57952</v>
+        <v>52855</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>13</v>
@@ -2796,7 +2787,7 @@
         <v>140</v>
       </c>
       <c r="I33" s="7">
-        <v>76758</v>
+        <v>68604</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>13</v>
@@ -2811,7 +2802,7 @@
         <v>215</v>
       </c>
       <c r="N33" s="7">
-        <v>134710</v>
+        <v>121459</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>13</v>
@@ -2825,7 +2816,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2834,13 +2825,13 @@
         <v>81</v>
       </c>
       <c r="D34" s="7">
-        <v>73898</v>
+        <v>72506</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>13</v>
@@ -2849,28 +2840,28 @@
         <v>91</v>
       </c>
       <c r="I34" s="7">
-        <v>66843</v>
+        <v>62349</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M34" s="7">
         <v>172</v>
       </c>
       <c r="N34" s="7">
-        <v>140741</v>
+        <v>134855</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>11</v>
@@ -2894,37 +2885,37 @@
         <v>20</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>776</v>
+        <v>726</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>776</v>
+        <v>726</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,7 +2936,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2960,7 +2951,7 @@
         <v>20</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2975,7 +2966,7 @@
         <v>20</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,7 +2987,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3011,7 +3002,7 @@
         <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3026,7 +3017,7 @@
         <v>20</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,37 +3038,37 @@
         <v>20</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>1508</v>
+        <v>1416</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>1508</v>
+        <v>1416</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,7 +3080,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="7">
-        <v>73898</v>
+        <v>72506</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -3104,7 +3095,7 @@
         <v>94</v>
       </c>
       <c r="I39" s="7">
-        <v>69127</v>
+        <v>64491</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>13</v>
@@ -3119,7 +3110,7 @@
         <v>175</v>
       </c>
       <c r="N39" s="7">
-        <v>143025</v>
+        <v>136997</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
@@ -3133,7 +3124,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3142,46 +3133,46 @@
         <v>81</v>
       </c>
       <c r="D40" s="7">
-        <v>98034</v>
+        <v>97986</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H40" s="7">
         <v>197</v>
       </c>
       <c r="I40" s="7">
-        <v>154411</v>
+        <v>143912</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M40" s="7">
         <v>278</v>
       </c>
       <c r="N40" s="7">
-        <v>252445</v>
+        <v>241899</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,46 +3184,46 @@
         <v>2</v>
       </c>
       <c r="D41" s="7">
-        <v>1284</v>
+        <v>1208</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>727</v>
+        <v>665</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
       </c>
       <c r="N41" s="7">
-        <v>2012</v>
+        <v>1873</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,28 +3235,28 @@
         <v>3</v>
       </c>
       <c r="D42" s="7">
-        <v>3392</v>
+        <v>3218</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
       </c>
       <c r="I42" s="7">
-        <v>7431</v>
+        <v>6941</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>168</v>
@@ -3274,13 +3265,13 @@
         <v>13</v>
       </c>
       <c r="N42" s="7">
-        <v>10824</v>
+        <v>10160</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>169</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>170</v>
@@ -3295,46 +3286,46 @@
         <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>1256</v>
+        <v>1307</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>1256</v>
+        <v>1307</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,46 +3337,46 @@
         <v>2</v>
       </c>
       <c r="D44" s="7">
-        <v>2312</v>
+        <v>2225</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
       </c>
       <c r="I44" s="7">
-        <v>1951</v>
+        <v>1782</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
       </c>
       <c r="N44" s="7">
-        <v>4262</v>
+        <v>4007</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,7 +3388,7 @@
         <v>89</v>
       </c>
       <c r="D45" s="7">
-        <v>106279</v>
+        <v>105945</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>13</v>
@@ -3412,7 +3403,7 @@
         <v>210</v>
       </c>
       <c r="I45" s="7">
-        <v>164520</v>
+        <v>153301</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>13</v>
@@ -3427,7 +3418,7 @@
         <v>299</v>
       </c>
       <c r="N45" s="7">
-        <v>270799</v>
+        <v>259246</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>13</v>
@@ -3441,7 +3432,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3450,46 +3441,46 @@
         <v>129</v>
       </c>
       <c r="D46" s="7">
-        <v>211538</v>
+        <v>380199</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="H46" s="7">
         <v>180</v>
       </c>
       <c r="I46" s="7">
-        <v>157251</v>
+        <v>131284</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M46" s="7">
         <v>309</v>
       </c>
       <c r="N46" s="7">
-        <v>368789</v>
+        <v>511483</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,37 +3501,37 @@
         <v>20</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
       </c>
       <c r="I47" s="7">
-        <v>806</v>
+        <v>682</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
       </c>
       <c r="N47" s="7">
-        <v>806</v>
+        <v>682</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,46 +3543,46 @@
         <v>2</v>
       </c>
       <c r="D48" s="7">
-        <v>2502</v>
+        <v>2162</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>929</v>
+        <v>738</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M48" s="7">
         <v>3</v>
       </c>
       <c r="N48" s="7">
-        <v>3431</v>
+        <v>2899</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3603,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3627,7 +3618,7 @@
         <v>20</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -3642,7 +3633,7 @@
         <v>20</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,46 +3645,46 @@
         <v>2</v>
       </c>
       <c r="D50" s="7">
-        <v>2446</v>
+        <v>2061</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="H50" s="7">
         <v>3</v>
       </c>
       <c r="I50" s="7">
-        <v>3517</v>
+        <v>2875</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
       </c>
       <c r="N50" s="7">
-        <v>5963</v>
+        <v>4936</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,7 +3696,7 @@
         <v>133</v>
       </c>
       <c r="D51" s="7">
-        <v>216486</v>
+        <v>384421</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>13</v>
@@ -3720,7 +3711,7 @@
         <v>185</v>
       </c>
       <c r="I51" s="7">
-        <v>162503</v>
+        <v>135579</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>13</v>
@@ -3735,7 +3726,7 @@
         <v>318</v>
       </c>
       <c r="N51" s="7">
-        <v>378989</v>
+        <v>520000</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>13</v>
@@ -3758,46 +3749,46 @@
         <v>564</v>
       </c>
       <c r="D52" s="7">
-        <v>679309</v>
+        <v>852928</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H52" s="7">
         <v>971</v>
       </c>
       <c r="I52" s="7">
-        <v>723056</v>
+        <v>665842</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M52" s="7">
         <v>1535</v>
       </c>
       <c r="N52" s="7">
-        <v>1402365</v>
+        <v>1518768</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,46 +3800,46 @@
         <v>2</v>
       </c>
       <c r="D53" s="7">
-        <v>1284</v>
+        <v>1208</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="H53" s="7">
         <v>5</v>
       </c>
       <c r="I53" s="7">
-        <v>3549</v>
+        <v>3225</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="M53" s="7">
         <v>7</v>
       </c>
       <c r="N53" s="7">
-        <v>4834</v>
+        <v>4433</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,46 +3851,46 @@
         <v>11</v>
       </c>
       <c r="D54" s="7">
-        <v>12571</v>
+        <v>11975</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="H54" s="7">
         <v>23</v>
       </c>
       <c r="I54" s="7">
-        <v>15670</v>
+        <v>14668</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M54" s="7">
         <v>34</v>
       </c>
       <c r="N54" s="7">
-        <v>28241</v>
+        <v>26643</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,46 +3902,46 @@
         <v>2</v>
       </c>
       <c r="D55" s="7">
-        <v>2628</v>
+        <v>2761</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
       </c>
       <c r="I55" s="7">
-        <v>1896</v>
+        <v>1724</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="M55" s="7">
         <v>4</v>
       </c>
       <c r="N55" s="7">
-        <v>4524</v>
+        <v>4484</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,46 +3953,46 @@
         <v>8</v>
       </c>
       <c r="D56" s="7">
-        <v>11296</v>
+        <v>10548</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H56" s="7">
         <v>12</v>
       </c>
       <c r="I56" s="7">
-        <v>10942</v>
+        <v>9821</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M56" s="7">
+        <v>20</v>
+      </c>
+      <c r="N56" s="7">
+        <v>20368</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M56" s="7">
-        <v>20</v>
-      </c>
-      <c r="N56" s="7">
-        <v>22239</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,7 +4004,7 @@
         <v>587</v>
       </c>
       <c r="D57" s="7">
-        <v>707089</v>
+        <v>879419</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>13</v>
@@ -4028,7 +4019,7 @@
         <v>1013</v>
       </c>
       <c r="I57" s="7">
-        <v>755113</v>
+        <v>695279</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>13</v>
@@ -4043,7 +4034,7 @@
         <v>1600</v>
       </c>
       <c r="N57" s="7">
-        <v>1462202</v>
+        <v>1574697</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>13</v>
@@ -4057,7 +4048,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
